--- a/docs/artefacts/[31.I.PM2-Template.v3].Business_Implementation_Checklist.(ProjectName).(dd-mm-yyyy).(vx.x).xlsx
+++ b/docs/artefacts/[31.I.PM2-Template.v3].Business_Implementation_Checklist.(ProjectName).(dd-mm-yyyy).(vx.x).xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\artefacts for cover page\OPM²_Artefacts.v3.0.1 with Cover Page\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://redelectrica-my.sharepoint.com/personal/adrian_sanchez_ree_es/Documents/Documentos/Code/github.com/adrisanchu/pm2/docs/artefacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6EA860-3228-4D8E-BB5C-DB31A5433B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{EC6EA860-3228-4D8E-BB5C-DB31A5433B79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{67CB8EA3-3D46-48D8-939A-2B7171CE8A02}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Implementation" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Business Implementation'!$B$3:$F$34</definedName>
@@ -23,10 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
   <si>
     <t>#</t>
   </si>
@@ -151,6 +149,18 @@
   </si>
   <si>
     <t>Have the training materials been reviewed and approved by the Project Owner (PO)?</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>id_phase</t>
+  </si>
+  <si>
+    <t>id_checklist</t>
   </si>
 </sst>
 </file>
@@ -201,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +236,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -568,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -715,6 +731,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,7 +750,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1058,11 +1075,11 @@
   </sheetPr>
   <dimension ref="B3:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
@@ -1597,4 +1614,355 @@
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8769159-2AB3-4D41-AD6F-DDA4240B7BE4}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="47"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="47"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="47"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="47"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="47"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="47"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="47"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="47"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="47"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="47"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>